--- a/pred_ohlcv/54_21/2020-01-16 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 HDAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-146140.2993336901</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-181924.3541336901</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-165794.0857336901</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-88269.92283369007</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-88269.92283369007</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-134934.9816336901</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-134934.9816336901</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1242446.97581203</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2223002.53685965</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2199552.53685965</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2192033.48115965</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2194033.48115965</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2176857.69705965</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2334295.78615965</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2335439.94105965</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2436183.400859651</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2442778.100859651</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2438597.291959651</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2502753.997383012</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2494968.721456022</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2497465.752448662</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 HDAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-146140.2993336901</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-158927.3725336901</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-160955.2174336901</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-165794.0857336901</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-37953.95613369007</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-87953.95613369007</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1293983.82061203</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1242446.97581203</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1248836.381412029</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1370358.789470279</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1336125.284870279</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1442426.882198399</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1643240.275998399</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1630494.06115965</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1649442.39365965</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1659573.45185965</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2222027.65125965</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2223002.53685965</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2192033.48115965</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2176857.69705965</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2438597.291959651</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2444790.044461211</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2469933.675283012</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2469900.241683011</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2469871.997383012</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2502753.997383012</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2494968.721456022</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2493031.487825652</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2493031.487825652</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2503031.487825652</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2502040.661425652</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2502040.661425652</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2497465.752448662</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2446454.986925652</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
